--- a/data/azerbaijan_8_20-21.xlsx
+++ b/data/azerbaijan_8_20-21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernandoduarte/Development/tesis/calendar-opt/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D2CBE0-F1A9-5B4C-A31C-D51712F1304A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14257B39-A774-0C4D-A9EB-B6FB9723E6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="94">
   <si>
     <t>Jornada</t>
   </si>
@@ -41,9 +41,6 @@
     <t>19/05/2021</t>
   </si>
   <si>
-    <t>KEŞ</t>
-  </si>
-  <si>
     <t>GAB</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>2:1</t>
   </si>
   <si>
-    <t>SƏB</t>
-  </si>
-  <si>
     <t>SUM</t>
   </si>
   <si>
@@ -305,28 +299,10 @@
     <t>Localías faltantes</t>
   </si>
   <si>
-    <t>Qarabağ FK</t>
-  </si>
-  <si>
-    <t>Neftçi PFK</t>
-  </si>
-  <si>
-    <t>Zira FK</t>
-  </si>
-  <si>
-    <t>Sumgayit FK</t>
-  </si>
-  <si>
-    <t>Gabala FK</t>
-  </si>
-  <si>
-    <t>Sabah FK</t>
-  </si>
-  <si>
-    <t>Səbail FK</t>
-  </si>
-  <si>
-    <t>Keşla FK</t>
+    <t>KES</t>
+  </si>
+  <si>
+    <t>SEB</t>
   </si>
 </sst>
 </file>
@@ -692,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A36"/>
+    <sheetView topLeftCell="A92" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -725,13 +701,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -739,13 +715,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -753,13 +729,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -767,13 +743,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -783,58 +759,58 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -844,58 +820,58 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -905,58 +881,58 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
         <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -966,58 +942,58 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1027,58 +1003,58 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1088,58 +1064,58 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1149,58 +1125,58 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1210,58 +1186,58 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1271,58 +1247,58 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1332,58 +1308,58 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D53" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1393,58 +1369,58 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s">
         <v>15</v>
-      </c>
-      <c r="E59" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1454,58 +1430,58 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
         <v>15</v>
-      </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1515,58 +1491,58 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E70" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -1576,58 +1552,58 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -1637,58 +1613,58 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C78" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D81" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -1698,58 +1674,58 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -1759,58 +1735,58 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E89" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -1820,58 +1796,58 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E94" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -1881,58 +1857,58 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" t="s">
         <v>7</v>
-      </c>
-      <c r="E98" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -1942,58 +1918,58 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E104" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E106" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2003,58 +1979,58 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E108" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E111" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2064,58 +2040,58 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D113" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E113" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E114" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s">
         <v>15</v>
-      </c>
-      <c r="D115" t="s">
-        <v>9</v>
-      </c>
-      <c r="E115" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" t="s">
         <v>10</v>
-      </c>
-      <c r="E116" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -2125,58 +2101,58 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E118" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" t="s">
         <v>15</v>
-      </c>
-      <c r="E120" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E121" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -2186,58 +2162,58 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C123" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D123" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E123" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C124" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E125" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E126" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -2247,58 +2223,58 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D128" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E128" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E130" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -2308,58 +2284,58 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C134" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E134" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C135" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E135" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E136" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -2369,58 +2345,58 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D138" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="E138" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D139" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E140" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E141" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2432,24 +2408,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2457,10 +2433,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>43</v>
@@ -2474,10 +2450,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>42</v>
@@ -2491,10 +2467,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>31</v>
@@ -2508,10 +2484,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>29</v>
@@ -2525,10 +2501,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>23</v>
@@ -2542,10 +2518,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>19</v>
@@ -2559,10 +2535,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D8">
         <v>19</v>
@@ -2576,10 +2552,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>18</v>
